--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Amh-Egfr.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Amh-Egfr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Egfr</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.588593347140969</v>
+        <v>0.9043393333333333</v>
       </c>
       <c r="H2">
-        <v>0.588593347140969</v>
+        <v>2.713018</v>
       </c>
       <c r="I2">
-        <v>0.5061099187528496</v>
+        <v>0.5538994939397102</v>
       </c>
       <c r="J2">
-        <v>0.5061099187528496</v>
+        <v>0.5538994939397101</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.09995180162147</v>
+        <v>1.307106666666667</v>
       </c>
       <c r="N2">
-        <v>1.09995180162147</v>
+        <v>3.92132</v>
       </c>
       <c r="O2">
-        <v>0.01083921810659819</v>
+        <v>0.01256263154946851</v>
       </c>
       <c r="P2">
-        <v>0.01083921810659819</v>
+        <v>0.01256263154946851</v>
       </c>
       <c r="Q2">
-        <v>0.6474243126101201</v>
+        <v>1.182067971528889</v>
       </c>
       <c r="R2">
-        <v>0.6474243126101201</v>
+        <v>10.63861174376</v>
       </c>
       <c r="S2">
-        <v>0.005485835795274827</v>
+        <v>0.006958435257801644</v>
       </c>
       <c r="T2">
-        <v>0.005485835795274827</v>
+        <v>0.006958435257801644</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +581,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.588593347140969</v>
+        <v>0.9043393333333333</v>
       </c>
       <c r="H3">
-        <v>0.588593347140969</v>
+        <v>2.713018</v>
       </c>
       <c r="I3">
-        <v>0.5061099187528496</v>
+        <v>0.5538994939397102</v>
       </c>
       <c r="J3">
-        <v>0.5061099187528496</v>
+        <v>0.5538994939397101</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>80.0622296761628</v>
+        <v>80.22623699999998</v>
       </c>
       <c r="N3">
-        <v>80.0622296761628</v>
+        <v>240.678711</v>
       </c>
       <c r="O3">
-        <v>0.7889545417183014</v>
+        <v>0.77105616682495</v>
       </c>
       <c r="P3">
-        <v>0.7889545417183014</v>
+        <v>0.77105616682495</v>
       </c>
       <c r="Q3">
-        <v>47.12409574466168</v>
+        <v>72.55174168442198</v>
       </c>
       <c r="R3">
-        <v>47.12409574466168</v>
+        <v>652.9656751597979</v>
       </c>
       <c r="S3">
-        <v>0.3992977190087412</v>
+        <v>0.4270876206034326</v>
       </c>
       <c r="T3">
-        <v>0.3992977190087412</v>
+        <v>0.4270876206034325</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +643,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.588593347140969</v>
+        <v>0.9043393333333333</v>
       </c>
       <c r="H4">
-        <v>0.588593347140969</v>
+        <v>2.713018</v>
       </c>
       <c r="I4">
-        <v>0.5061099187528496</v>
+        <v>0.5538994939397102</v>
       </c>
       <c r="J4">
-        <v>0.5061099187528496</v>
+        <v>0.5538994939397101</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.3167066490164</v>
+        <v>22.51385866666667</v>
       </c>
       <c r="N4">
-        <v>20.3167066490164</v>
+        <v>67.54157600000001</v>
       </c>
       <c r="O4">
-        <v>0.2002062401751004</v>
+        <v>0.2163812016255815</v>
       </c>
       <c r="P4">
-        <v>0.2002062401751004</v>
+        <v>0.2163812016255815</v>
       </c>
       <c r="Q4">
-        <v>11.95827836942574</v>
+        <v>20.36016793737422</v>
       </c>
       <c r="R4">
-        <v>11.95827836942574</v>
+        <v>183.241511436368</v>
       </c>
       <c r="S4">
-        <v>0.1013263639488336</v>
+        <v>0.119853438078476</v>
       </c>
       <c r="T4">
-        <v>0.1013263639488336</v>
+        <v>0.1198534380784759</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,10 +705,10 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
@@ -717,49 +717,49 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.574381977648899</v>
+        <v>0.133128</v>
       </c>
       <c r="H5">
-        <v>0.574381977648899</v>
+        <v>0.399384</v>
       </c>
       <c r="I5">
-        <v>0.4938900812471503</v>
+        <v>0.08153967112920636</v>
       </c>
       <c r="J5">
-        <v>0.4938900812471503</v>
+        <v>0.08153967112920636</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.09995180162147</v>
+        <v>1.307106666666667</v>
       </c>
       <c r="N5">
-        <v>1.09995180162147</v>
+        <v>3.92132</v>
       </c>
       <c r="O5">
-        <v>0.01083921810659819</v>
+        <v>0.01256263154946851</v>
       </c>
       <c r="P5">
-        <v>0.01083921810659819</v>
+        <v>0.01256263154946851</v>
       </c>
       <c r="Q5">
-        <v>0.6317924911338093</v>
+        <v>0.17401249632</v>
       </c>
       <c r="R5">
-        <v>0.6317924911338093</v>
+        <v>1.56611246688</v>
       </c>
       <c r="S5">
-        <v>0.005353382311323364</v>
+        <v>0.001024352845061054</v>
       </c>
       <c r="T5">
-        <v>0.005353382311323364</v>
+        <v>0.001024352845061054</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +767,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.574381977648899</v>
+        <v>0.133128</v>
       </c>
       <c r="H6">
-        <v>0.574381977648899</v>
+        <v>0.399384</v>
       </c>
       <c r="I6">
-        <v>0.4938900812471503</v>
+        <v>0.08153967112920636</v>
       </c>
       <c r="J6">
-        <v>0.4938900812471503</v>
+        <v>0.08153967112920636</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>80.0622296761628</v>
+        <v>80.22623699999998</v>
       </c>
       <c r="N6">
-        <v>80.0622296761628</v>
+        <v>240.678711</v>
       </c>
       <c r="O6">
-        <v>0.7889545417183014</v>
+        <v>0.77105616682495</v>
       </c>
       <c r="P6">
-        <v>0.7889545417183014</v>
+        <v>0.77105616682495</v>
       </c>
       <c r="Q6">
-        <v>45.98630181637476</v>
+        <v>10.680358479336</v>
       </c>
       <c r="R6">
-        <v>45.98630181637476</v>
+        <v>96.123226314024</v>
       </c>
       <c r="S6">
-        <v>0.3896568227095601</v>
+        <v>0.0628716662650529</v>
       </c>
       <c r="T6">
-        <v>0.3896568227095601</v>
+        <v>0.0628716662650529</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +829,247 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.133128</v>
+      </c>
+      <c r="H7">
+        <v>0.399384</v>
+      </c>
+      <c r="I7">
+        <v>0.08153967112920636</v>
+      </c>
+      <c r="J7">
+        <v>0.08153967112920636</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>22.51385866666667</v>
+      </c>
+      <c r="N7">
+        <v>67.54157600000001</v>
+      </c>
+      <c r="O7">
+        <v>0.2163812016255815</v>
+      </c>
+      <c r="P7">
+        <v>0.2163812016255815</v>
+      </c>
+      <c r="Q7">
+        <v>2.997224976576</v>
+      </c>
+      <c r="R7">
+        <v>26.975024789184</v>
+      </c>
+      <c r="S7">
+        <v>0.01764365201909241</v>
+      </c>
+      <c r="T7">
+        <v>0.01764365201909241</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.5952103333333333</v>
+      </c>
+      <c r="H8">
+        <v>1.785631</v>
+      </c>
+      <c r="I8">
+        <v>0.3645608349310836</v>
+      </c>
+      <c r="J8">
+        <v>0.3645608349310835</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1.307106666666667</v>
+      </c>
+      <c r="N8">
+        <v>3.92132</v>
+      </c>
+      <c r="O8">
+        <v>0.01256263154946851</v>
+      </c>
+      <c r="P8">
+        <v>0.01256263154946851</v>
+      </c>
+      <c r="Q8">
+        <v>0.7780033947688888</v>
+      </c>
+      <c r="R8">
+        <v>7.00203055292</v>
+      </c>
+      <c r="S8">
+        <v>0.004579843446605812</v>
+      </c>
+      <c r="T8">
+        <v>0.004579843446605811</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.574381977648899</v>
-      </c>
-      <c r="H7">
-        <v>0.574381977648899</v>
-      </c>
-      <c r="I7">
-        <v>0.4938900812471503</v>
-      </c>
-      <c r="J7">
-        <v>0.4938900812471503</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>20.3167066490164</v>
-      </c>
-      <c r="N7">
-        <v>20.3167066490164</v>
-      </c>
-      <c r="O7">
-        <v>0.2002062401751004</v>
-      </c>
-      <c r="P7">
-        <v>0.2002062401751004</v>
-      </c>
-      <c r="Q7">
-        <v>11.66955014437458</v>
-      </c>
-      <c r="R7">
-        <v>11.66955014437458</v>
-      </c>
-      <c r="S7">
-        <v>0.09887987622626684</v>
-      </c>
-      <c r="T7">
-        <v>0.09887987622626684</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.5952103333333333</v>
+      </c>
+      <c r="H9">
+        <v>1.785631</v>
+      </c>
+      <c r="I9">
+        <v>0.3645608349310836</v>
+      </c>
+      <c r="J9">
+        <v>0.3645608349310835</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>80.22623699999998</v>
+      </c>
+      <c r="N9">
+        <v>240.678711</v>
+      </c>
+      <c r="O9">
+        <v>0.77105616682495</v>
+      </c>
+      <c r="P9">
+        <v>0.77105616682495</v>
+      </c>
+      <c r="Q9">
+        <v>47.75148526684899</v>
+      </c>
+      <c r="R9">
+        <v>429.7633674016409</v>
+      </c>
+      <c r="S9">
+        <v>0.2810968799564647</v>
+      </c>
+      <c r="T9">
+        <v>0.2810968799564647</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.5952103333333333</v>
+      </c>
+      <c r="H10">
+        <v>1.785631</v>
+      </c>
+      <c r="I10">
+        <v>0.3645608349310836</v>
+      </c>
+      <c r="J10">
+        <v>0.3645608349310835</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>22.51385866666667</v>
+      </c>
+      <c r="N10">
+        <v>67.54157600000001</v>
+      </c>
+      <c r="O10">
+        <v>0.2163812016255815</v>
+      </c>
+      <c r="P10">
+        <v>0.2163812016255815</v>
+      </c>
+      <c r="Q10">
+        <v>13.40048132160622</v>
+      </c>
+      <c r="R10">
+        <v>120.604331894456</v>
+      </c>
+      <c r="S10">
+        <v>0.07888411152801313</v>
+      </c>
+      <c r="T10">
+        <v>0.07888411152801311</v>
       </c>
     </row>
   </sheetData>
